--- a/biology/Médecine/Produit_de_conseils/Produit_de_conseils.xlsx
+++ b/biology/Médecine/Produit_de_conseils/Produit_de_conseils.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les produits de conseils désignent tout élément vendu en pharmacie ayant obtenu une AMM et dont le remboursement par la sécurité sociale est nul. À ce titre, ces produits sont conseillés par le pharmacien d'officine lorsqu'une personne vient lui décrire ses symptômes. Ils ne requièrent pas l'obligation de présentation d'une ordonnance médicale, et sont généralement destinés à toute maladie dite bénigne comme un rhume ou une diarrhée de l'adulte passagère. De plus, ils ne disposent pas d'homologues sous forme de génériques, à l'exception de certains produits comme le Maalox qui a pour générique le Xolaam (Maalox à l'envers). On trouve par exemple Actifed, Lysopaïne et bien d'autres.
  Portail de la pharmacie                     </t>
